--- a/products_categories/Products.xlsx
+++ b/products_categories/Products.xlsx
@@ -19,26 +19,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="389">
   <si>
     <t>image</t>
   </si>
   <si>
-    <t>p-name</t>
-  </si>
-  <si>
-    <t>p-name2</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>p-id</t>
-  </si>
-  <si>
     <t>Aloe Vera Gel TriPack</t>
   </si>
   <si>
@@ -109,231 +100,6 @@
   </si>
   <si>
     <t>ФАБ- Енергийна напитка</t>
-  </si>
-  <si>
-    <t>products_img\packages\StartYourJourneyPack.png</t>
-  </si>
-  <si>
-    <t>products_img\health\drinks\forever_aloe_vera_gel.jpg</t>
-  </si>
-  <si>
-    <t>products_img\health\drinks\forever_aloe_mango.jpg</t>
-  </si>
-  <si>
-    <t>products_img\health\drinks\forever_aloe_berry_nectar.jpg</t>
-  </si>
-  <si>
-    <t>products_img\health\drinks\tripack_forever_aloe_vera_gel.jpg</t>
-  </si>
-  <si>
-    <t>products_img\health\drinks\tripack_forever_aloe_mango.jpg</t>
-  </si>
-  <si>
-    <t>products_img\health\drinks\tripack_forever_aloe_berry.jpg</t>
-  </si>
-  <si>
-    <t>products_img\health\drinks\aloe_vera_gel_330ml__pack.jpg</t>
-  </si>
-  <si>
-    <t>products_img\health\drinks\aloe_peaches_330ml_pack.jpg</t>
-  </si>
-  <si>
-    <t>products_img\health\drinks\aloe_berry_nectar_330ml__pack.jpg</t>
-  </si>
-  <si>
-    <t>products_img\health\drinks\forever_freedom.jpg</t>
-  </si>
-  <si>
-    <t>products_img\health\drinks\aloe_blossom_herbal_tea.jpg</t>
-  </si>
-  <si>
-    <t>products_img\health\drinks\fab_forever_active_boost.jpg</t>
-  </si>
-  <si>
-    <t>products_img\health\supplements\fields_of_greens.jpg</t>
-  </si>
-  <si>
-    <t>products_img\health\supplements\forever_absorbent.jpg</t>
-  </si>
-  <si>
-    <t>products_img\health\supplements\forever_arctic_sea.jpg</t>
-  </si>
-  <si>
-    <t>products_img\health\supplements\forever_argi.jpg</t>
-  </si>
-  <si>
-    <t>products_img\health\supplements\forever_b12_plus.jpg</t>
-  </si>
-  <si>
-    <t>products_img\health\supplements\forever_bee_pollen.jpg</t>
-  </si>
-  <si>
-    <t>products_img\health\supplements\forever_bee_propolis.jpg</t>
-  </si>
-  <si>
-    <t>products_img\health\supplements\forever_calcium.jpg</t>
-  </si>
-  <si>
-    <t>products_img\health\supplements\forever_garlic-thyme.jpg</t>
-  </si>
-  <si>
-    <t>products_img\health\supplements\forever_immublen.jpg</t>
-  </si>
-  <si>
-    <t>products_img\health\supplements\forever_immune_gummy.jpg</t>
-  </si>
-  <si>
-    <t>products_img\health\supplements\forever_ivision.jpg</t>
-  </si>
-  <si>
-    <t>products_img\health\supplements\forever_marine_collagen.jpg</t>
-  </si>
-  <si>
-    <t>products_img\health\supplements\forever_multi-maca.jpg</t>
-  </si>
-  <si>
-    <t>products_img\health\supplements\forever_royal_jelly.jpg</t>
-  </si>
-  <si>
-    <t>products_img\health\supplements\forever_supergreens.jpg</t>
-  </si>
-  <si>
-    <t>products_img\health\supplements\forever_vitolize_men.jpg</t>
-  </si>
-  <si>
-    <t>products_img\health\supplements\forever_vitolize_women.jpg</t>
-  </si>
-  <si>
-    <t>products_img\health\supplements\infinite_by_forever_firming_complex.jpg</t>
-  </si>
-  <si>
-    <t>products_img\cosmetics\face\aloe_activator.jpg</t>
-  </si>
-  <si>
-    <t>products_img\cosmetics\face\awakening_eye_cream.jpg</t>
-  </si>
-  <si>
-    <t>products_img\cosmetics\face\balancing_toner.jpg</t>
-  </si>
-  <si>
-    <t>products_img\cosmetics\face\forever_aloe_lips.jpg</t>
-  </si>
-  <si>
-    <t>products_img\cosmetics\face\forever_aloe_scrub.jpg</t>
-  </si>
-  <si>
-    <t>products_img\cosmetics\face\forever_infinite.jpg</t>
-  </si>
-  <si>
-    <t>products_img\cosmetics\face\hydrating_serum.jpg</t>
-  </si>
-  <si>
-    <t>products_img\cosmetics\face\infinite_by_forever__firming_serum.jpg</t>
-  </si>
-  <si>
-    <t>products_img\cosmetics\face\infinite_by_forever__hydrating_cleanser.jpg</t>
-  </si>
-  <si>
-    <t>products_img\cosmetics\face\infinite_by_forever_restoring.jpg</t>
-  </si>
-  <si>
-    <t>products_img\cosmetics\face\Protecting_Day_Lotion.jpg</t>
-  </si>
-  <si>
-    <t>products_img\cosmetics\face\smoothing_exfoliator.jpg</t>
-  </si>
-  <si>
-    <t>products_img\cosmetics\face\sonya_daily_skincare.jpg</t>
-  </si>
-  <si>
-    <t>products_img\cosmetics\face\sonya__illuminating_gel.jpg</t>
-  </si>
-  <si>
-    <t>products_img\cosmetics\face\sonya__refining_gel_mask.jpg</t>
-  </si>
-  <si>
-    <t>products_img\cosmetics\face\sonya__refreshing_gel_cleanser.jpg</t>
-  </si>
-  <si>
-    <t>products_img\cosmetics\face\sonya__soothing_gel_moisturizer.jpg</t>
-  </si>
-  <si>
-    <t>products_img\cosmetics\body\aloe_body_lotion.jpg</t>
-  </si>
-  <si>
-    <t>products_img\cosmetics\body\aloe_cooling_lotion.jpg</t>
-  </si>
-  <si>
-    <t>products_img\cosmetics\body\aloe_first.jpg</t>
-  </si>
-  <si>
-    <t>products_img\cosmetics\body\aloe_msm_gel.jpg</t>
-  </si>
-  <si>
-    <t>products_img\cosmetics\body\aloe_propolis_creme.jpg</t>
-  </si>
-  <si>
-    <t>products_img\cosmetics\body\aloe_sunscreen.jpg</t>
-  </si>
-  <si>
-    <t>products_img\cosmetics\body\aloe_vera_gelly.jpg</t>
-  </si>
-  <si>
-    <t>products_img\cosmetics\personal hygiene\aloe_avocado_face.jpg</t>
-  </si>
-  <si>
-    <t>products_img\cosmetics\personal hygiene\aloe_body_wash.jpg</t>
-  </si>
-  <si>
-    <t>products_img\cosmetics\personal hygiene\aloe_liquid_soap.jpg</t>
-  </si>
-  <si>
-    <t>products_img\cosmetics\personal hygiene\aloe-jojoba_shampoo.jpg</t>
-  </si>
-  <si>
-    <t>products_img\cosmetics\personal hygiene\aloe-jojoba_conditioner.jpg</t>
-  </si>
-  <si>
-    <t>products_img\cosmetics\personal hygiene\forever_bright.jpg</t>
-  </si>
-  <si>
-    <t>products_img\cosmetics\personal hygiene\forever_hand_sanitizer.jpg</t>
-  </si>
-  <si>
-    <t>products_img\cosmetics\personal hygiene\gentleman_s_pride.jpg</t>
-  </si>
-  <si>
-    <t>products_img\packages\1cc_touch_of_forever.jpg</t>
-  </si>
-  <si>
-    <t>products_img\packages\330ml_forever_aloe_vera_gel_argi_tripack.jpg</t>
-  </si>
-  <si>
-    <t>products_img\weight_control\FOREVER_ULTRA_CHOC_SHAKE.jpg</t>
-  </si>
-  <si>
-    <t>products_img\weight_control\FOREVER_ULTRA_VANILLE_SHAKE.jpg</t>
-  </si>
-  <si>
-    <t>products_img\weight_control\FOREVER_PLANT_PROTEIN.jpg</t>
-  </si>
-  <si>
-    <t>products_img\weight_control\Forever_Sensatiable.jpg</t>
-  </si>
-  <si>
-    <t>products_img\weight_control\FOREVER_LEAN.jpg</t>
-  </si>
-  <si>
-    <t>products_img\weight_control\FAST_BREAK_BARS.jpg</t>
-  </si>
-  <si>
-    <t>products_img\weight_control\DX4_BODY_BALANCING_SYSTEM.jpg</t>
-  </si>
-  <si>
-    <t>products_img\weight_control\forever_clean-9.jpg</t>
-  </si>
-  <si>
-    <t>products_img\weight_control\f15_vanilla.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Fields of Greens
@@ -1163,6 +929,264 @@
   </si>
   <si>
     <t>1074.html</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>name2</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Напитки</t>
+  </si>
+  <si>
+    <t>Добавки</t>
+  </si>
+  <si>
+    <t>Грижа за лицето</t>
+  </si>
+  <si>
+    <t>Грижа за тялото</t>
+  </si>
+  <si>
+    <t>Лична хигиена</t>
+  </si>
+  <si>
+    <t>Пакети</t>
+  </si>
+  <si>
+    <t>Контрол на теглото</t>
+  </si>
+  <si>
+    <t>products_img\\health\\drinks\\forever_aloe_vera_gel.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\health\\drinks\\forever_aloe_mango.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\health\\drinks\\forever_aloe_berry_nectar.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\health\\drinks\\tripack_forever_aloe_vera_gel.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\health\\drinks\\tripack_forever_aloe_mango.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\health\\drinks\\tripack_forever_aloe_berry.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\health\\drinks\\aloe_vera_gel_330ml__pack.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\health\\drinks\\aloe_peaches_330ml_pack.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\health\\drinks\\aloe_berry_nectar_330ml__pack.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\health\\drinks\\forever_freedom.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\health\\drinks\\aloe_blossom_herbal_tea.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\health\\drinks\\fab_forever_active_boost.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\health\\supplements\\fields_of_greens.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\health\\supplements\\forever_absorbent.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\health\\supplements\\forever_arctic_sea.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\health\\supplements\\forever_argi.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\health\\supplements\\forever_b12_plus.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\health\\supplements\\forever_bee_pollen.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\health\\supplements\\forever_bee_propolis.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\health\\supplements\\forever_calcium.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\health\\supplements\\forever_garlic-thyme.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\health\\supplements\\forever_immublen.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\health\\supplements\\forever_immune_gummy.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\health\\supplements\\forever_ivision.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\health\\supplements\\forever_marine_collagen.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\health\\supplements\\forever_multi-maca.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\health\\supplements\\forever_royal_jelly.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\health\\supplements\\forever_supergreens.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\health\\supplements\\forever_vitolize_men.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\health\\supplements\\forever_vitolize_women.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\health\\supplements\\infinite_by_forever_firming_complex.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\cosmetics\\face\\aloe_activator.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\cosmetics\\face\\awakening_eye_cream.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\cosmetics\\face\\balancing_toner.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\cosmetics\\face\\forever_aloe_lips.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\cosmetics\\face\\forever_aloe_scrub.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\cosmetics\\face\\forever_infinite.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\cosmetics\\face\\hydrating_serum.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\cosmetics\\face\\infinite_by_forever__firming_serum.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\cosmetics\\face\\infinite_by_forever__hydrating_cleanser.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\cosmetics\\face\\infinite_by_forever_restoring.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\cosmetics\\face\\Protecting_Day_Lotion.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\cosmetics\\face\\smoothing_exfoliator.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\cosmetics\\face\\sonya_daily_skincare.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\cosmetics\\face\\sonya__illuminating_gel.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\cosmetics\\face\\sonya__refining_gel_mask.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\cosmetics\\face\\sonya__refreshing_gel_cleanser.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\cosmetics\\face\\sonya__soothing_gel_moisturizer.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\cosmetics\\body\\aloe_body_lotion.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\cosmetics\\body\\aloe_cooling_lotion.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\cosmetics\\body\\aloe_first.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\cosmetics\\body\\aloe_msm_gel.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\cosmetics\\body\\aloe_propolis_creme.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\cosmetics\\body\\aloe_sunscreen.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\cosmetics\\body\\aloe_vera_gelly.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\cosmetics\\personal hygiene\\aloe_avocado_face.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\cosmetics\\personal hygiene\\aloe_body_wash.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\cosmetics\\personal hygiene\\aloe_liquid_soap.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\cosmetics\\personal hygiene\\aloe-jojoba_shampoo.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\cosmetics\\personal hygiene\\aloe-jojoba_conditioner.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\cosmetics\\personal hygiene\\forever_bright.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\cosmetics\\personal hygiene\\forever_hand_sanitizer.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\cosmetics\\personal hygiene\\gentleman_s_pride.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\packages\\1cc_touch_of_forever.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\packages\\330ml_forever_aloe_vera_gel_argi_tripack.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\packages\\StartYourJourneyPack.png</t>
+  </si>
+  <si>
+    <t>products_img\\weight_control\\FOREVER_ULTRA_CHOC_SHAKE.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\weight_control\\FOREVER_ULTRA_VANILLE_SHAKE.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\weight_control\\FOREVER_PLANT_PROTEIN.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\weight_control\\Forever_Sensatiable.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\weight_control\\FOREVER_LEAN.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\weight_control\\FAST_BREAK_BARS.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\weight_control\\DX4_BODY_BALANCING_SYSTEM.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\weight_control\\forever_clean-9.jpg</t>
+  </si>
+  <si>
+    <t>products_img\\weight_control\\f15_vanilla.jpg</t>
   </si>
 </sst>
 </file>
@@ -1524,10 +1548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C39" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1539,1748 +1563,1977 @@
     <col min="5" max="5" width="85" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>303</v>
       </c>
       <c r="C1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>314</v>
       </c>
       <c r="B2">
         <v>1000</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>230</v>
+        <v>152</v>
       </c>
       <c r="F2" s="1">
         <v>59.54</v>
       </c>
       <c r="G2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+      <c r="H2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>315</v>
       </c>
       <c r="B3">
         <v>1001</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="F3" s="1">
         <v>59.54</v>
       </c>
       <c r="G3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H3" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>316</v>
       </c>
       <c r="B4">
         <v>1002</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>232</v>
+        <v>154</v>
       </c>
       <c r="F4" s="1">
         <v>59.54</v>
       </c>
       <c r="G4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+      <c r="H4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>317</v>
       </c>
       <c r="B5">
         <v>1003</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="F5" s="1">
         <v>178.61</v>
       </c>
       <c r="G5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+      <c r="H5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>318</v>
       </c>
       <c r="B6">
         <v>1004</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>234</v>
+        <v>156</v>
       </c>
       <c r="F6" s="1">
         <v>178.61</v>
       </c>
       <c r="G6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+      <c r="H6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>319</v>
       </c>
       <c r="B7">
         <v>1005</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>235</v>
+        <v>157</v>
       </c>
       <c r="F7" s="1">
         <v>178.61</v>
       </c>
       <c r="G7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+      <c r="H7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="B8">
         <v>1006</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>236</v>
+        <v>158</v>
       </c>
       <c r="F8" s="1">
         <v>238.12</v>
       </c>
       <c r="G8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+      <c r="H8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>321</v>
       </c>
       <c r="B9">
         <v>1007</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>237</v>
+        <v>159</v>
       </c>
       <c r="F9" s="1">
         <v>238.12</v>
       </c>
       <c r="G9" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+      <c r="H9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>322</v>
       </c>
       <c r="B10">
         <v>1008</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>238</v>
+        <v>160</v>
       </c>
       <c r="F10" s="1">
         <v>238.12</v>
       </c>
       <c r="G10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+      <c r="H10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>323</v>
       </c>
       <c r="B11">
         <v>1009</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>239</v>
+        <v>161</v>
       </c>
       <c r="F11" s="1">
         <v>81.36</v>
       </c>
       <c r="G11" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+      <c r="H11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>324</v>
       </c>
       <c r="B12">
         <v>1010</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>240</v>
+        <v>162</v>
       </c>
       <c r="F12" s="1">
         <v>40.06</v>
       </c>
       <c r="G12" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+      <c r="H12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>42</v>
+        <v>325</v>
       </c>
       <c r="B13" s="2">
         <v>1011</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>241</v>
+        <v>163</v>
       </c>
       <c r="F13" s="3">
         <v>8.58</v>
       </c>
       <c r="G13" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+      <c r="H13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>326</v>
       </c>
       <c r="B14">
         <v>1012</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>242</v>
+        <v>164</v>
       </c>
       <c r="F14" s="1">
         <v>27.48</v>
       </c>
       <c r="G14" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+      <c r="H14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>327</v>
       </c>
       <c r="B15">
         <v>1013</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>243</v>
+        <v>165</v>
       </c>
       <c r="F15" s="1">
         <v>40.06</v>
       </c>
       <c r="G15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+      <c r="H15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>328</v>
       </c>
       <c r="B16">
         <v>1014</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>244</v>
+        <v>166</v>
       </c>
       <c r="F16" s="1">
         <v>72.680000000000007</v>
       </c>
       <c r="G16" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+      <c r="H16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>329</v>
       </c>
       <c r="B17">
         <v>1015</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="F17" s="1">
         <v>156.84</v>
       </c>
       <c r="G17" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+      <c r="H17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="B18">
         <v>1016</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>247</v>
+        <v>169</v>
       </c>
       <c r="F18" s="1">
         <v>35.5</v>
       </c>
       <c r="G18" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+      <c r="H18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="B19">
         <v>1017</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>248</v>
+        <v>170</v>
       </c>
       <c r="F19" s="1">
         <v>34.909999999999997</v>
       </c>
       <c r="G19" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+      <c r="H19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>332</v>
       </c>
       <c r="B20">
         <v>1018</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>249</v>
+        <v>171</v>
       </c>
       <c r="F20" s="1">
         <v>72.680000000000007</v>
       </c>
       <c r="G20" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+      <c r="H20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>333</v>
       </c>
       <c r="B21">
         <v>1019</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>250</v>
+        <v>172</v>
       </c>
       <c r="F21" s="1">
         <v>54.94</v>
       </c>
       <c r="G21" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+      <c r="H21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>334</v>
       </c>
       <c r="B22">
         <v>1020</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="F22" s="1">
         <v>41.79</v>
       </c>
       <c r="G22" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+      <c r="H22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>335</v>
       </c>
       <c r="B23">
         <v>1021</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>251</v>
+        <v>173</v>
       </c>
       <c r="F23" s="1">
         <v>48.08</v>
       </c>
       <c r="G23" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+      <c r="H23" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>336</v>
       </c>
       <c r="B24">
         <v>1022</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>252</v>
+        <v>174</v>
       </c>
       <c r="F24" s="1">
         <v>84.69</v>
       </c>
       <c r="G24" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+      <c r="H24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>337</v>
       </c>
       <c r="B25">
         <v>1023</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="F25" s="1">
         <v>80.12</v>
       </c>
       <c r="G25" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+      <c r="H25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>338</v>
       </c>
       <c r="B26">
         <v>1024</v>
       </c>
       <c r="C26" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>255</v>
+        <v>177</v>
       </c>
       <c r="F26" s="1">
         <v>187.14</v>
       </c>
       <c r="G26" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+      <c r="H26" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>339</v>
       </c>
       <c r="B27">
         <v>1025</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="F27" s="1">
         <v>60.68</v>
       </c>
       <c r="G27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+      <c r="H27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>340</v>
       </c>
       <c r="B28">
         <v>1026</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>257</v>
+        <v>179</v>
       </c>
       <c r="F28" s="1">
         <v>75.58</v>
       </c>
       <c r="G28" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+      <c r="H28" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>341</v>
       </c>
       <c r="B29">
         <v>1027</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>258</v>
+        <v>180</v>
       </c>
       <c r="F29" s="1">
         <v>88.12</v>
       </c>
       <c r="G29" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+      <c r="H29" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>342</v>
       </c>
       <c r="B30">
         <v>1028</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>259</v>
+        <v>181</v>
       </c>
       <c r="F30" s="1">
         <v>68.680000000000007</v>
       </c>
       <c r="G30" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+      <c r="H30" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>343</v>
       </c>
       <c r="B31">
         <v>1029</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>260</v>
+        <v>182</v>
       </c>
       <c r="F31" s="1">
         <v>72.680000000000007</v>
       </c>
       <c r="G31" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="H31" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>61</v>
+        <v>344</v>
       </c>
       <c r="B32" s="2">
         <v>1030</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="F32" s="3">
         <v>118.46</v>
       </c>
       <c r="G32" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+      <c r="H32" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>345</v>
       </c>
       <c r="B33">
         <v>1031</v>
       </c>
       <c r="C33" t="s">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>262</v>
+        <v>184</v>
       </c>
       <c r="F33" s="1">
         <v>36.61</v>
       </c>
       <c r="G33" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+      <c r="H33" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>346</v>
       </c>
       <c r="B34">
         <v>1032</v>
       </c>
       <c r="C34" t="s">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="D34" t="s">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>263</v>
+        <v>185</v>
       </c>
       <c r="F34" s="1">
         <v>41.79</v>
       </c>
       <c r="G34" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="H34" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>347</v>
       </c>
       <c r="B35">
         <v>1033</v>
       </c>
       <c r="C35" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>264</v>
+        <v>186</v>
       </c>
       <c r="F35" s="1">
         <v>49.78</v>
       </c>
       <c r="G35" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+      <c r="H35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>348</v>
       </c>
       <c r="B36">
         <v>1034</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="D36" t="s">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>265</v>
+        <v>187</v>
       </c>
       <c r="F36" s="1">
         <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+      <c r="H36" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>349</v>
       </c>
       <c r="B37">
         <v>1035</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="D37" t="s">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="F37" s="1">
         <v>36.08</v>
       </c>
       <c r="G37" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+      <c r="H37" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>350</v>
       </c>
       <c r="B38">
         <v>1036</v>
       </c>
       <c r="C38" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="D38" t="s">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>266</v>
+        <v>188</v>
       </c>
       <c r="F38" s="1">
         <v>400.64</v>
       </c>
       <c r="G38" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+      <c r="H38" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>351</v>
       </c>
       <c r="B39">
         <v>1037</v>
       </c>
       <c r="C39" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="D39" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>268</v>
+        <v>190</v>
       </c>
       <c r="F39" s="1">
         <v>80.12</v>
       </c>
       <c r="G39" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+      <c r="H39" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>352</v>
       </c>
       <c r="B40">
         <v>1038</v>
       </c>
       <c r="C40" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="D40" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="E40" t="s">
-        <v>267</v>
+        <v>189</v>
       </c>
       <c r="F40" s="1">
         <v>119.05</v>
       </c>
       <c r="G40" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+      <c r="H40" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>353</v>
       </c>
       <c r="B41">
         <v>1039</v>
       </c>
       <c r="C41" t="s">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c r="F41" s="1">
         <v>60.11</v>
       </c>
       <c r="G41" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+      <c r="H41" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>354</v>
       </c>
       <c r="B42">
         <v>1040</v>
       </c>
       <c r="C42" t="s">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>271</v>
+        <v>193</v>
       </c>
       <c r="F42" s="1">
         <v>132.77000000000001</v>
       </c>
       <c r="G42" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="H42" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>355</v>
       </c>
       <c r="B43">
         <v>1041</v>
       </c>
       <c r="C43" t="s">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="D43" t="s">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>272</v>
+        <v>194</v>
       </c>
       <c r="F43" s="1">
         <v>83.57</v>
       </c>
       <c r="G43" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+      <c r="H43" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>356</v>
       </c>
       <c r="B44">
         <v>1042</v>
       </c>
       <c r="C44" t="s">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="D44" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>273</v>
+        <v>195</v>
       </c>
       <c r="F44" s="1">
         <v>41.79</v>
       </c>
       <c r="G44" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+      <c r="H44" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>357</v>
       </c>
       <c r="B45">
         <v>1043</v>
       </c>
       <c r="C45" t="s">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>276</v>
+        <v>198</v>
       </c>
       <c r="F45" s="1">
         <v>195.18</v>
       </c>
       <c r="G45" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+      <c r="H45" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>75</v>
+        <v>358</v>
       </c>
       <c r="B46">
         <v>1044</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="D46" t="s">
-        <v>174</v>
+        <v>96</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>274</v>
+        <v>196</v>
       </c>
       <c r="F46" s="1">
         <v>50.92</v>
       </c>
       <c r="G46" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+      <c r="H46" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>359</v>
       </c>
       <c r="B47">
         <v>1045</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
       <c r="D47" t="s">
-        <v>175</v>
+        <v>97</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>275</v>
+        <v>197</v>
       </c>
       <c r="F47" s="1">
         <v>53.82</v>
       </c>
       <c r="G47" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+      <c r="H47" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="B48">
         <v>1046</v>
       </c>
       <c r="C48" t="s">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="D48" t="s">
-        <v>176</v>
+        <v>98</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="F48" s="1">
         <v>53.82</v>
       </c>
       <c r="G48" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+      <c r="H48" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>78</v>
+        <v>361</v>
       </c>
       <c r="B49" s="2">
         <v>1047</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>177</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="F49" s="3">
         <v>58.96</v>
       </c>
       <c r="G49" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+      <c r="H49" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="B50">
         <v>1048</v>
       </c>
       <c r="C50" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="D50" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>277</v>
+        <v>199</v>
       </c>
       <c r="F50" s="1">
         <v>34.340000000000003</v>
       </c>
       <c r="G50" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+      <c r="H50" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>80</v>
+        <v>363</v>
       </c>
       <c r="B51">
         <v>1049</v>
       </c>
       <c r="C51" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="D51" t="s">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>278</v>
+        <v>200</v>
       </c>
       <c r="F51" s="1">
         <v>34.340000000000003</v>
       </c>
       <c r="G51" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+      <c r="H51" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>364</v>
       </c>
       <c r="B52">
         <v>1050</v>
       </c>
       <c r="C52" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="D52" t="s">
-        <v>185</v>
+        <v>107</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>279</v>
+        <v>201</v>
       </c>
       <c r="F52" s="1">
         <v>45.24</v>
       </c>
       <c r="G52" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+      <c r="H52" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>365</v>
       </c>
       <c r="B53">
         <v>1051</v>
       </c>
       <c r="C53" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D53" t="s">
-        <v>187</v>
+        <v>109</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="F53" s="1">
         <v>52.68</v>
       </c>
       <c r="G53" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+      <c r="H53" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>366</v>
       </c>
       <c r="B54">
         <v>1052</v>
       </c>
       <c r="C54" t="s">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="D54" t="s">
-        <v>189</v>
+        <v>111</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>280</v>
+        <v>202</v>
       </c>
       <c r="F54" s="1">
         <v>45.24</v>
       </c>
       <c r="G54" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+      <c r="H54" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>367</v>
       </c>
       <c r="B55">
         <v>1053</v>
       </c>
       <c r="C55" t="s">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="D55" t="s">
-        <v>191</v>
+        <v>113</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>281</v>
+        <v>203</v>
       </c>
       <c r="F55" s="1">
         <v>47.53</v>
       </c>
       <c r="G55" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+      <c r="H55" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>368</v>
       </c>
       <c r="B56" s="2">
         <v>1054</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>192</v>
+        <v>114</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>282</v>
+        <v>204</v>
       </c>
       <c r="F56" s="3">
         <v>34.340000000000003</v>
       </c>
       <c r="G56" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+      <c r="H56" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>86</v>
+        <v>369</v>
       </c>
       <c r="B57">
         <v>1055</v>
       </c>
       <c r="C57" t="s">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="D57" t="s">
-        <v>197</v>
+        <v>119</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>283</v>
+        <v>205</v>
       </c>
       <c r="F57" s="1">
         <v>13.76</v>
       </c>
       <c r="G57" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+      <c r="H57" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>87</v>
+        <v>370</v>
       </c>
       <c r="B58">
         <v>1056</v>
       </c>
       <c r="C58" t="s">
-        <v>198</v>
+        <v>120</v>
       </c>
       <c r="D58" t="s">
-        <v>200</v>
+        <v>122</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>284</v>
+        <v>206</v>
       </c>
       <c r="F58" s="1">
         <v>51.49</v>
       </c>
       <c r="G58" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+      <c r="H58" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>88</v>
+        <v>371</v>
       </c>
       <c r="B59">
         <v>1057</v>
       </c>
       <c r="C59" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
       <c r="D59" t="s">
-        <v>201</v>
+        <v>123</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="F59" s="1">
         <v>42.92</v>
       </c>
       <c r="G59" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+      <c r="H59" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>89</v>
+        <v>372</v>
       </c>
       <c r="B60">
         <v>1058</v>
       </c>
       <c r="C60" t="s">
-        <v>182</v>
+        <v>104</v>
       </c>
       <c r="D60" t="s">
-        <v>202</v>
+        <v>124</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>286</v>
+        <v>208</v>
       </c>
       <c r="F60" s="1">
         <v>49.78</v>
       </c>
       <c r="G60" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+      <c r="H60" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>90</v>
+        <v>373</v>
       </c>
       <c r="B61">
         <v>1059</v>
       </c>
       <c r="C61" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="D61" t="s">
-        <v>203</v>
+        <v>125</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>287</v>
+        <v>209</v>
       </c>
       <c r="F61" s="1">
         <v>53.25</v>
       </c>
       <c r="G61" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+      <c r="H61" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>91</v>
+        <v>374</v>
       </c>
       <c r="B62">
         <v>1060</v>
       </c>
       <c r="C62" t="s">
-        <v>204</v>
+        <v>126</v>
       </c>
       <c r="D62" t="s">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>288</v>
+        <v>210</v>
       </c>
       <c r="F62" s="1">
         <v>17.739999999999998</v>
       </c>
       <c r="G62" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+      <c r="H62" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>92</v>
+        <v>375</v>
       </c>
       <c r="B63">
         <v>1061</v>
       </c>
       <c r="C63" t="s">
-        <v>206</v>
+        <v>128</v>
       </c>
       <c r="D63" t="s">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>304</v>
+        <v>226</v>
       </c>
       <c r="F63" s="1">
         <v>30.34</v>
       </c>
       <c r="G63" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+      <c r="H63" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>376</v>
       </c>
       <c r="B64" s="2">
         <v>1062</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>289</v>
+        <v>211</v>
       </c>
       <c r="F64" s="3">
         <v>34.340000000000003</v>
       </c>
       <c r="G64" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+      <c r="H64" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>94</v>
+        <v>377</v>
       </c>
       <c r="B65">
         <v>1063</v>
       </c>
       <c r="C65" t="s">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="D65" t="s">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>299</v>
+        <v>221</v>
       </c>
       <c r="F65" s="1">
         <v>1116.3399999999999</v>
       </c>
       <c r="G65" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="H65" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>95</v>
+        <v>378</v>
       </c>
       <c r="B66">
         <v>1064</v>
       </c>
       <c r="C66" t="s">
-        <v>212</v>
+        <v>134</v>
       </c>
       <c r="D66" t="s">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="E66" t="s">
-        <v>246</v>
+        <v>168</v>
       </c>
       <c r="F66" s="1">
         <v>75.19</v>
       </c>
       <c r="G66" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+      <c r="H66" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>30</v>
+        <v>379</v>
       </c>
       <c r="B67" s="2">
         <v>1065</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>214</v>
+        <v>136</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>215</v>
+        <v>137</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>301</v>
+        <v>223</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c r="G67" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="H67" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>380</v>
       </c>
       <c r="B68">
         <v>1066</v>
       </c>
       <c r="C68" t="s">
-        <v>216</v>
+        <v>138</v>
       </c>
       <c r="D68" t="s">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="E68" t="s">
-        <v>291</v>
+        <v>213</v>
       </c>
       <c r="F68" s="1">
         <v>57.23</v>
       </c>
       <c r="G68" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+      <c r="H68" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>381</v>
       </c>
       <c r="B69">
         <v>1067</v>
       </c>
       <c r="C69" t="s">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="D69" t="s">
-        <v>219</v>
+        <v>141</v>
       </c>
       <c r="E69" t="s">
-        <v>290</v>
+        <v>212</v>
       </c>
       <c r="F69" s="1">
         <v>57.23</v>
       </c>
       <c r="G69" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+      <c r="H69" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>98</v>
+        <v>382</v>
       </c>
       <c r="B70">
         <v>1068</v>
       </c>
       <c r="C70" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="D70" t="s">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c r="E70" t="s">
-        <v>292</v>
+        <v>214</v>
       </c>
       <c r="F70" s="1">
         <v>127.62</v>
       </c>
       <c r="G70" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+      <c r="H70" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>383</v>
       </c>
       <c r="B71">
         <v>1069</v>
       </c>
       <c r="C71" t="s">
-        <v>190</v>
+        <v>112</v>
       </c>
       <c r="D71" t="s">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="E71" t="s">
-        <v>293</v>
+        <v>215</v>
       </c>
       <c r="F71" s="1">
         <v>60.11</v>
       </c>
       <c r="G71" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+      <c r="H71" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>384</v>
       </c>
       <c r="B72">
         <v>1070</v>
       </c>
       <c r="C72" t="s">
-        <v>194</v>
+        <v>116</v>
       </c>
       <c r="D72" t="s">
-        <v>222</v>
+        <v>144</v>
       </c>
       <c r="E72" t="s">
-        <v>294</v>
+        <v>216</v>
       </c>
       <c r="F72" s="1">
         <v>86.44</v>
       </c>
       <c r="G72" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+      <c r="H72" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>385</v>
       </c>
       <c r="B73">
         <v>1071</v>
       </c>
       <c r="C73" t="s">
-        <v>223</v>
+        <v>145</v>
       </c>
       <c r="D73" t="s">
-        <v>224</v>
+        <v>146</v>
       </c>
       <c r="E73" t="s">
-        <v>295</v>
+        <v>217</v>
       </c>
       <c r="F73" s="1">
         <v>10.31</v>
       </c>
       <c r="G73" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+      <c r="H73" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>102</v>
+        <v>386</v>
       </c>
       <c r="B74">
         <v>1072</v>
       </c>
       <c r="C74" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="D74" t="s">
-        <v>228</v>
+        <v>150</v>
       </c>
       <c r="E74" t="s">
-        <v>296</v>
+        <v>218</v>
       </c>
       <c r="F74" s="1">
         <v>320.5</v>
       </c>
       <c r="G74" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="H74" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>103</v>
+        <v>387</v>
       </c>
       <c r="B75">
         <v>1073</v>
       </c>
       <c r="C75" t="s">
-        <v>225</v>
+        <v>147</v>
       </c>
       <c r="E75" t="s">
-        <v>302</v>
+        <v>224</v>
       </c>
       <c r="F75" s="1">
         <v>270.32</v>
       </c>
       <c r="G75" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+      <c r="H75" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>104</v>
+        <v>388</v>
       </c>
       <c r="B76">
         <v>1074</v>
       </c>
       <c r="C76" t="s">
-        <v>226</v>
+        <v>148</v>
       </c>
       <c r="E76" t="s">
-        <v>303</v>
+        <v>225</v>
       </c>
       <c r="F76" s="1">
         <v>337.32</v>
       </c>
       <c r="G76" t="s">
-        <v>380</v>
+        <v>302</v>
+      </c>
+      <c r="H76" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/products_categories/Products.xlsx
+++ b/products_categories/Products.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="424">
   <si>
     <t>image</t>
   </si>
@@ -400,12 +400,6 @@
     <t>Гел за зъби Форевър брайт</t>
   </si>
   <si>
-    <t>Forever Instant Hand Cleanser</t>
-  </si>
-  <si>
-    <t>Почистващ гел за ръце</t>
-  </si>
-  <si>
     <t>Gentleman’s Pride After Shave Balm</t>
   </si>
   <si>
@@ -688,9 +682,6 @@
     <t>15-дневна програма за напреднали в областта на храненето и фитнеса, която може да ви помогне да промените своята рутина за фитнес и хранене.</t>
   </si>
   <si>
-    <t>Предназначен да убива 99,9% от бактериите и да оставя ръцете ви чисти и освежени в мига, когато не можете да използвате сапун и вода.</t>
-  </si>
-  <si>
     <t>1000.html</t>
   </si>
   <si>
@@ -877,9 +868,6 @@
     <t>1060.html</t>
   </si>
   <si>
-    <t>1061.html</t>
-  </si>
-  <si>
     <t>1062.html</t>
   </si>
   <si>
@@ -1157,9 +1145,6 @@
   </si>
   <si>
     <t>https://thealoeveraco.shop/BEq3gHup</t>
-  </si>
-  <si>
-    <t>https://thealoeveraco.shop/hqNkgLcA</t>
   </si>
   <si>
     <t>https://thealoeveraco.shop/9yvfLLs8</t>
@@ -1713,10 +1698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1737,13 +1722,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1752,18 +1737,18 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B2:B84 &amp;"b.jpg"</f>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B2:B83 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1000b.jpg</v>
       </c>
       <c r="B2">
@@ -1776,24 +1761,24 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F2" s="1">
         <v>59.54</v>
       </c>
       <c r="G2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A66" si="0" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B3:B85 &amp;"b.jpg"</f>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B3:B84 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1001b.jpg</v>
       </c>
       <c r="B3">
@@ -1806,81 +1791,81 @@
         <v>15</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F3" s="1">
         <v>59.54</v>
       </c>
       <c r="G3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B4:B85 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1075b.jpg</v>
       </c>
       <c r="B4" s="9">
         <v>1075</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F4" s="11">
         <v>59.54</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>313</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B5:B86 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1082b.jpg</v>
       </c>
       <c r="B5" s="9">
         <v>1082</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F5" s="11">
         <v>55.51</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B6:B87 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1002b.jpg</v>
       </c>
       <c r="B6">
@@ -1893,24 +1878,24 @@
         <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F6" s="1">
         <v>59.54</v>
       </c>
       <c r="G6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B7:B88 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1003b.jpg</v>
       </c>
       <c r="B7">
@@ -1923,54 +1908,54 @@
         <v>17</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F7" s="1">
         <v>178.61</v>
       </c>
       <c r="G7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B8:B89 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1004b.jpg</v>
       </c>
       <c r="B8" s="14">
         <v>1004</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F8" s="16">
         <v>178.61</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B9:B90 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1005b.jpg</v>
       </c>
       <c r="B9">
@@ -1983,24 +1968,24 @@
         <v>18</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F9" s="1">
         <v>178.61</v>
       </c>
       <c r="G9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H9" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B10:B91 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1006b.jpg</v>
       </c>
       <c r="B10">
@@ -2013,24 +1998,24 @@
         <v>19</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F10" s="1">
         <v>238.12</v>
       </c>
       <c r="G10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H10" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B11:B92 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1007b.jpg</v>
       </c>
       <c r="B11">
@@ -2043,24 +2028,24 @@
         <v>20</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F11" s="1">
         <v>238.12</v>
       </c>
       <c r="G11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H11" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B12:B93 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1008b.jpg</v>
       </c>
       <c r="B12">
@@ -2073,24 +2058,24 @@
         <v>21</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F12" s="1">
         <v>238.12</v>
       </c>
       <c r="G12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H12" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B13:B94 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1009b.jpg</v>
       </c>
       <c r="B13">
@@ -2103,51 +2088,51 @@
         <v>22</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F13" s="1">
         <v>81.36</v>
       </c>
       <c r="G13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B14:B95 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1076b.jpg</v>
       </c>
       <c r="B14" s="9">
         <v>1076</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F14" s="11">
         <v>8.58</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B15:B96 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1010b.jpg</v>
       </c>
       <c r="B15">
@@ -2160,24 +2145,24 @@
         <v>23</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F15" s="1">
         <v>40.06</v>
       </c>
       <c r="G15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H15" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B16:B97 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1011b.jpg</v>
       </c>
       <c r="B16" s="2">
@@ -2190,24 +2175,24 @@
         <v>24</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F16" s="3">
         <v>8.58</v>
       </c>
       <c r="G16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H16" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B17:B98 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1012b.jpg</v>
       </c>
       <c r="B17">
@@ -2220,51 +2205,51 @@
         <v>26</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F17" s="1">
         <v>27.48</v>
       </c>
       <c r="G17" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H17" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B18:B99 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1078b.jpg</v>
       </c>
       <c r="B18" s="9">
         <v>1078</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F18" s="11">
         <v>32.61</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B19:B100 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1013b.jpg</v>
       </c>
       <c r="B19">
@@ -2277,24 +2262,24 @@
         <v>28</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F19" s="1">
         <v>40.06</v>
       </c>
       <c r="G19" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H19" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B20:B101 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1014b.jpg</v>
       </c>
       <c r="B20">
@@ -2307,24 +2292,24 @@
         <v>30</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F20" s="1">
         <v>72.680000000000007</v>
       </c>
       <c r="G20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H20" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B21:B102 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1015b.jpg</v>
       </c>
       <c r="B21">
@@ -2337,24 +2322,24 @@
         <v>31</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F21" s="1">
         <v>156.84</v>
       </c>
       <c r="G21" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H21" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B22:B103 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1016b.jpg</v>
       </c>
       <c r="B22">
@@ -2367,24 +2352,24 @@
         <v>34</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F22" s="1">
         <v>35.5</v>
       </c>
       <c r="G22" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H22" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B23:B104 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1017b.jpg</v>
       </c>
       <c r="B23">
@@ -2397,24 +2382,24 @@
         <v>36</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F23" s="1">
         <v>34.909999999999997</v>
       </c>
       <c r="G23" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H23" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B24:B105 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1018b.jpg</v>
       </c>
       <c r="B24">
@@ -2427,24 +2412,24 @@
         <v>38</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F24" s="1">
         <v>72.680000000000007</v>
       </c>
       <c r="G24" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H24" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B25:B106 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1019b.jpg</v>
       </c>
       <c r="B25">
@@ -2457,24 +2442,24 @@
         <v>40</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F25" s="1">
         <v>54.94</v>
       </c>
       <c r="G25" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H25" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B26:B107 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1020b.jpg</v>
       </c>
       <c r="B26">
@@ -2487,24 +2472,24 @@
         <v>42</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F26" s="1">
         <v>41.79</v>
       </c>
       <c r="G26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H26" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B27:B108 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1021b.jpg</v>
       </c>
       <c r="B27">
@@ -2517,24 +2502,24 @@
         <v>44</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F27" s="1">
         <v>48.08</v>
       </c>
       <c r="G27" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H27" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B28:B109 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1022b.jpg</v>
       </c>
       <c r="B28">
@@ -2547,24 +2532,24 @@
         <v>46</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F28" s="1">
         <v>84.69</v>
       </c>
       <c r="G28" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H28" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B29:B110 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1023b.jpg</v>
       </c>
       <c r="B29">
@@ -2577,24 +2562,24 @@
         <v>48</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F29" s="1">
         <v>80.12</v>
       </c>
       <c r="G29" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H29" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B30:B111 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1024b.jpg</v>
       </c>
       <c r="B30">
@@ -2607,24 +2592,24 @@
         <v>50</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F30" s="1">
         <v>187.14</v>
       </c>
       <c r="G30" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H30" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B31:B112 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1025b.jpg</v>
       </c>
       <c r="B31">
@@ -2637,24 +2622,24 @@
         <v>52</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F31" s="1">
         <v>60.68</v>
       </c>
       <c r="G31" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H31" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B32:B113 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1026b.jpg</v>
       </c>
       <c r="B32">
@@ -2667,24 +2652,24 @@
         <v>54</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F32" s="1">
         <v>75.58</v>
       </c>
       <c r="G32" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H32" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B33:B114 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1027b.jpg</v>
       </c>
       <c r="B33">
@@ -2697,24 +2682,24 @@
         <v>56</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F33" s="1">
         <v>88.12</v>
       </c>
       <c r="G33" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H33" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B34:B115 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1028b.jpg</v>
       </c>
       <c r="B34">
@@ -2727,24 +2712,24 @@
         <v>61</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F34" s="1">
         <v>68.680000000000007</v>
       </c>
       <c r="G34" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H34" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B35:B116 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1029b.jpg</v>
       </c>
       <c r="B35">
@@ -2757,24 +2742,24 @@
         <v>62</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F35" s="1">
         <v>72.680000000000007</v>
       </c>
       <c r="G35" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H35" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B36:B117 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1030b.jpg</v>
       </c>
       <c r="B36" s="2">
@@ -2787,24 +2772,24 @@
         <v>66</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F36" s="3">
         <v>118.46</v>
       </c>
       <c r="G36" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H36" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B37:B118 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1031b.jpg</v>
       </c>
       <c r="B37">
@@ -2817,24 +2802,24 @@
         <v>68</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F37" s="1">
         <v>36.61</v>
       </c>
       <c r="G37" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H37" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B38:B119 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1032b.jpg</v>
       </c>
       <c r="B38">
@@ -2847,24 +2832,24 @@
         <v>72</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F38" s="1">
         <v>41.79</v>
       </c>
       <c r="G38" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H38" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B39:B120 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1033b.jpg</v>
       </c>
       <c r="B39">
@@ -2877,51 +2862,51 @@
         <v>73</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F39" s="1">
         <v>49.78</v>
       </c>
       <c r="G39" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H39" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B40:B121 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1077b.jpg</v>
       </c>
       <c r="B40" s="9">
         <v>1077</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F40" s="11">
         <v>72.680000000000007</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B41:B122 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1034b.jpg</v>
       </c>
       <c r="B41">
@@ -2934,24 +2919,24 @@
         <v>74</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F41" s="1">
         <v>8</v>
       </c>
       <c r="G41" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H41" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B42:B123 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1035b.jpg</v>
       </c>
       <c r="B42">
@@ -2964,24 +2949,24 @@
         <v>75</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F42" s="1">
         <v>36.08</v>
       </c>
       <c r="G42" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H42" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B43:B124 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1036b.jpg</v>
       </c>
       <c r="B43">
@@ -2994,24 +2979,24 @@
         <v>76</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F43" s="1">
         <v>400.64</v>
       </c>
       <c r="G43" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H43" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B44:B125 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1037b.jpg</v>
       </c>
       <c r="B44">
@@ -3024,24 +3009,24 @@
         <v>78</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F44" s="1">
         <v>80.12</v>
       </c>
       <c r="G44" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H44" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B45:B126 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1038b.jpg</v>
       </c>
       <c r="B45">
@@ -3054,24 +3039,24 @@
         <v>81</v>
       </c>
       <c r="E45" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F45" s="1">
         <v>119.05</v>
       </c>
       <c r="G45" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H45" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B46:B127 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1039b.jpg</v>
       </c>
       <c r="B46">
@@ -3084,24 +3069,24 @@
         <v>82</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F46" s="1">
         <v>60.11</v>
       </c>
       <c r="G46" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H46" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B47:B128 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1040b.jpg</v>
       </c>
       <c r="B47">
@@ -3114,24 +3099,24 @@
         <v>84</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F47" s="1">
         <v>132.77000000000001</v>
       </c>
       <c r="G47" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H47" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B48:B129 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1041b.jpg</v>
       </c>
       <c r="B48">
@@ -3144,24 +3129,24 @@
         <v>85</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F48" s="1">
         <v>83.57</v>
       </c>
       <c r="G48" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H48" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B49:B130 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1042b.jpg</v>
       </c>
       <c r="B49">
@@ -3174,24 +3159,24 @@
         <v>87</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F49" s="1">
         <v>41.79</v>
       </c>
       <c r="G49" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H49" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B50:B131 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1043b.jpg</v>
       </c>
       <c r="B50">
@@ -3204,24 +3189,24 @@
         <v>89</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F50" s="1">
         <v>195.18</v>
       </c>
       <c r="G50" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H50" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B51:B132 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1044b.jpg</v>
       </c>
       <c r="B51">
@@ -3234,24 +3219,24 @@
         <v>94</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F51" s="1">
         <v>50.92</v>
       </c>
       <c r="G51" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H51" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B52:B133 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1045b.jpg</v>
       </c>
       <c r="B52">
@@ -3264,24 +3249,24 @@
         <v>95</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F52" s="1">
         <v>53.82</v>
       </c>
       <c r="G52" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H52" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B53:B134 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1046b.jpg</v>
       </c>
       <c r="B53">
@@ -3294,24 +3279,24 @@
         <v>96</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F53" s="1">
         <v>53.82</v>
       </c>
       <c r="G53" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H53" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B54:B135 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1047b.jpg</v>
       </c>
       <c r="B54" s="2">
@@ -3324,24 +3309,24 @@
         <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F54" s="3">
         <v>58.96</v>
       </c>
       <c r="G54" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H54" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B55:B136 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1048b.jpg</v>
       </c>
       <c r="B55">
@@ -3354,24 +3339,24 @@
         <v>99</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F55" s="1">
         <v>34.340000000000003</v>
       </c>
       <c r="G55" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H55" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B56:B137 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1049b.jpg</v>
       </c>
       <c r="B56">
@@ -3384,24 +3369,24 @@
         <v>100</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F56" s="1">
         <v>34.340000000000003</v>
       </c>
       <c r="G56" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H56" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B57:B138 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1050b.jpg</v>
       </c>
       <c r="B57">
@@ -3414,24 +3399,24 @@
         <v>105</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F57" s="1">
         <v>45.24</v>
       </c>
       <c r="G57" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H57" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B58:B139 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1051b.jpg</v>
       </c>
       <c r="B58">
@@ -3444,24 +3429,24 @@
         <v>107</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F58" s="1">
         <v>52.68</v>
       </c>
       <c r="G58" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H58" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B59:B140 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1052b.jpg</v>
       </c>
       <c r="B59">
@@ -3474,24 +3459,24 @@
         <v>109</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F59" s="1">
         <v>45.24</v>
       </c>
       <c r="G59" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H59" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B60:B141 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1053b.jpg</v>
       </c>
       <c r="B60">
@@ -3504,24 +3489,24 @@
         <v>111</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F60" s="1">
         <v>47.53</v>
       </c>
       <c r="G60" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H60" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B61:B142 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1054b.jpg</v>
       </c>
       <c r="B61" s="2">
@@ -3534,24 +3519,24 @@
         <v>115</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F61" s="3">
         <v>34.340000000000003</v>
       </c>
       <c r="G61" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H61" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B62:B143 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1055b.jpg</v>
       </c>
       <c r="B62">
@@ -3564,105 +3549,105 @@
         <v>117</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F62" s="1">
         <v>13.76</v>
       </c>
       <c r="G62" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H62" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B63:B144 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1079b.jpg</v>
       </c>
       <c r="B63" s="9">
         <v>1079</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F63" s="11">
         <v>76.69</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B64:B145 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1080b.jpg</v>
       </c>
       <c r="B64" s="9">
         <v>1080</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F64" s="11">
         <v>76.69</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B65:B146 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1081b.jpg</v>
       </c>
       <c r="B65" s="9">
         <v>1081</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F65" s="11">
         <v>63.52</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B66:B147 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1056b.jpg</v>
       </c>
       <c r="B66">
@@ -3675,24 +3660,24 @@
         <v>120</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F66" s="1">
         <v>51.49</v>
       </c>
       <c r="G66" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H66" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
-        <f t="shared" ref="A67:A84" si="1" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B67:B149 &amp;"b.jpg"</f>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B67:B148 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1057b.jpg</v>
       </c>
       <c r="B67">
@@ -3705,24 +3690,24 @@
         <v>121</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F67" s="1">
         <v>42.92</v>
       </c>
       <c r="G67" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H67" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B68:B149 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1058b.jpg</v>
       </c>
       <c r="B68">
@@ -3735,24 +3720,24 @@
         <v>122</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F68" s="1">
         <v>49.78</v>
       </c>
       <c r="G68" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H68" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B69:B150 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1059b.jpg</v>
       </c>
       <c r="B69">
@@ -3765,24 +3750,24 @@
         <v>123</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F69" s="1">
         <v>53.25</v>
       </c>
       <c r="G69" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H69" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B70:B151 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1060b.jpg</v>
       </c>
       <c r="B70">
@@ -3795,88 +3780,88 @@
         <v>125</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F70" s="1">
         <v>17.739999999999998</v>
       </c>
       <c r="G70" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H70" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A71:A83" si="0" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B71:B153 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1061b.jpg</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="2">
         <v>1061</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E71" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F71" s="1">
-        <v>30.34</v>
+      <c r="E71" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F71" s="3">
+        <v>34.340000000000003</v>
       </c>
       <c r="G71" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H71" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Product_details_JPG\\1062b.jpg</v>
-      </c>
-      <c r="B72" s="2">
-        <v>1062</v>
-      </c>
-      <c r="C72" s="2" t="s">
+        <f t="shared" si="0"/>
+        <v>products_img\\Product_details_JPG\\1063b.jpg</v>
+      </c>
+      <c r="B72">
+        <v>1063</v>
+      </c>
+      <c r="C72" t="s">
         <v>128</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" t="s">
         <v>129</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F72" s="3">
-        <v>34.340000000000003</v>
+      <c r="E72" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1116.3399999999999</v>
       </c>
       <c r="G72" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H72" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Product_details_JPG\\1063b.jpg</v>
+        <f t="shared" si="0"/>
+        <v>products_img\\Product_details_JPG\\1064b.jpg</v>
       </c>
       <c r="B73">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C73" t="s">
         <v>130</v>
@@ -3884,344 +3869,314 @@
       <c r="D73" t="s">
         <v>131</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" t="s">
+        <v>162</v>
+      </c>
+      <c r="F73" s="1">
+        <v>75.19</v>
+      </c>
+      <c r="G73" t="s">
+        <v>284</v>
+      </c>
+      <c r="H73" t="s">
+        <v>304</v>
+      </c>
+      <c r="I73" s="12" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" t="str">
+        <f t="shared" si="0"/>
+        <v>products_img\\Product_details_JPG\\1065b.jpg</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1065</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F73" s="1">
-        <v>1116.3399999999999</v>
-      </c>
-      <c r="G73" t="s">
-        <v>287</v>
-      </c>
-      <c r="H73" t="s">
-        <v>308</v>
-      </c>
-      <c r="I73" s="12" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Product_details_JPG\\1064b.jpg</v>
-      </c>
-      <c r="B74">
-        <v>1064</v>
-      </c>
-      <c r="C74" t="s">
-        <v>132</v>
-      </c>
-      <c r="D74" t="s">
-        <v>133</v>
-      </c>
-      <c r="E74" t="s">
-        <v>164</v>
-      </c>
-      <c r="F74" s="1">
-        <v>75.19</v>
+      <c r="F74" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="G74" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H74" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Product_details_JPG\\1065b.jpg</v>
-      </c>
-      <c r="B75" s="2">
-        <v>1065</v>
-      </c>
-      <c r="C75" s="2" t="s">
+        <f t="shared" si="0"/>
+        <v>products_img\\Product_details_JPG\\1066b.jpg</v>
+      </c>
+      <c r="B75">
+        <v>1066</v>
+      </c>
+      <c r="C75" t="s">
         <v>134</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>148</v>
+      <c r="D75" t="s">
+        <v>136</v>
+      </c>
+      <c r="E75" t="s">
+        <v>207</v>
+      </c>
+      <c r="F75" s="1">
+        <v>57.23</v>
       </c>
       <c r="G75" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H75" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Product_details_JPG\\1066b.jpg</v>
+        <f t="shared" si="0"/>
+        <v>products_img\\Product_details_JPG\\1067b.jpg</v>
       </c>
       <c r="B76">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E76" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F76" s="1">
         <v>57.23</v>
       </c>
       <c r="G76" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H76" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Product_details_JPG\\1067b.jpg</v>
+        <f t="shared" si="0"/>
+        <v>products_img\\Product_details_JPG\\1068b.jpg</v>
       </c>
       <c r="B77">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C77" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="D77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E77" t="s">
         <v>208</v>
       </c>
       <c r="F77" s="1">
-        <v>57.23</v>
+        <v>127.62</v>
       </c>
       <c r="G77" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H77" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Product_details_JPG\\1068b.jpg</v>
+        <f t="shared" si="0"/>
+        <v>products_img\\Product_details_JPG\\1069b.jpg</v>
       </c>
       <c r="B78">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C78" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E78" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F78" s="1">
-        <v>127.62</v>
+        <v>60.11</v>
       </c>
       <c r="G78" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H78" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Product_details_JPG\\1069b.jpg</v>
+        <f t="shared" si="0"/>
+        <v>products_img\\Product_details_JPG\\1070b.jpg</v>
       </c>
       <c r="B79">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C79" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D79" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E79" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F79" s="1">
-        <v>60.11</v>
+        <v>86.44</v>
       </c>
       <c r="G79" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H79" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Product_details_JPG\\1070b.jpg</v>
+        <f t="shared" si="0"/>
+        <v>products_img\\Product_details_JPG\\1071b.jpg</v>
       </c>
       <c r="B80">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C80" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="D80" t="s">
         <v>142</v>
       </c>
       <c r="E80" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F80" s="1">
-        <v>86.44</v>
+        <v>10.31</v>
       </c>
       <c r="G80" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H80" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Product_details_JPG\\1071b.jpg</v>
+        <f t="shared" si="0"/>
+        <v>products_img\\Product_details_JPG\\1072b.jpg</v>
       </c>
       <c r="B81">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C81" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D81" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E81" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F81" s="1">
-        <v>10.31</v>
+        <v>320.5</v>
       </c>
       <c r="G81" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H81" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Product_details_JPG\\1072b.jpg</v>
+        <f t="shared" si="0"/>
+        <v>products_img\\Product_details_JPG\\1073b.jpg</v>
       </c>
       <c r="B82">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C82" t="s">
-        <v>146</v>
-      </c>
-      <c r="D82" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E82" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F82" s="1">
-        <v>320.5</v>
+        <v>270.32</v>
       </c>
       <c r="G82" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H82" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Product_details_JPG\\1073b.jpg</v>
+        <f t="shared" si="0"/>
+        <v>products_img\\Product_details_JPG\\1074b.jpg</v>
       </c>
       <c r="B83">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C83" t="s">
-        <v>145</v>
+        <v>387</v>
       </c>
       <c r="E83" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F83" s="1">
-        <v>270.32</v>
+        <v>337.32</v>
       </c>
       <c r="G83" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H83" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Product_details_JPG\\1074b.jpg</v>
-      </c>
-      <c r="B84">
-        <v>1074</v>
-      </c>
-      <c r="C84" t="s">
-        <v>392</v>
-      </c>
-      <c r="E84" t="s">
-        <v>221</v>
-      </c>
-      <c r="F84" s="1">
-        <v>337.32</v>
-      </c>
-      <c r="G84" t="s">
-        <v>298</v>
-      </c>
-      <c r="H84" t="s">
-        <v>309</v>
-      </c>
-      <c r="I84" s="12" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -4289,28 +4244,27 @@
     <hyperlink ref="I69" r:id="rId61"/>
     <hyperlink ref="I70" r:id="rId62"/>
     <hyperlink ref="I71" r:id="rId63"/>
-    <hyperlink ref="I72" r:id="rId64"/>
-    <hyperlink ref="I82" r:id="rId65"/>
-    <hyperlink ref="I81" r:id="rId66"/>
-    <hyperlink ref="I83" r:id="rId67"/>
-    <hyperlink ref="I80" r:id="rId68"/>
-    <hyperlink ref="I78" r:id="rId69"/>
-    <hyperlink ref="I77" r:id="rId70"/>
-    <hyperlink ref="I76" r:id="rId71"/>
-    <hyperlink ref="I79" r:id="rId72"/>
+    <hyperlink ref="I81" r:id="rId64"/>
+    <hyperlink ref="I80" r:id="rId65"/>
+    <hyperlink ref="I82" r:id="rId66"/>
+    <hyperlink ref="I79" r:id="rId67"/>
+    <hyperlink ref="I77" r:id="rId68"/>
+    <hyperlink ref="I76" r:id="rId69"/>
+    <hyperlink ref="I75" r:id="rId70"/>
+    <hyperlink ref="I78" r:id="rId71"/>
+    <hyperlink ref="I72" r:id="rId72"/>
     <hyperlink ref="I73" r:id="rId73"/>
-    <hyperlink ref="I74" r:id="rId74"/>
-    <hyperlink ref="I84" r:id="rId75"/>
-    <hyperlink ref="I75" r:id="rId76"/>
-    <hyperlink ref="I14" r:id="rId77"/>
-    <hyperlink ref="I40" r:id="rId78"/>
-    <hyperlink ref="I18" r:id="rId79"/>
-    <hyperlink ref="I63" r:id="rId80"/>
-    <hyperlink ref="I64" r:id="rId81"/>
-    <hyperlink ref="I65" r:id="rId82"/>
-    <hyperlink ref="I5" r:id="rId83"/>
+    <hyperlink ref="I83" r:id="rId74"/>
+    <hyperlink ref="I74" r:id="rId75"/>
+    <hyperlink ref="I14" r:id="rId76"/>
+    <hyperlink ref="I40" r:id="rId77"/>
+    <hyperlink ref="I18" r:id="rId78"/>
+    <hyperlink ref="I63" r:id="rId79"/>
+    <hyperlink ref="I64" r:id="rId80"/>
+    <hyperlink ref="I65" r:id="rId81"/>
+    <hyperlink ref="I5" r:id="rId82"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId84"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId83"/>
 </worksheet>
 </file>
--- a/products_categories/Products.xlsx
+++ b/products_categories/Products.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="424">
   <si>
     <t>image</t>
   </si>
@@ -1700,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="C58" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62:H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1748,7 +1748,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B2:B83 &amp;"b.jpg"</f>
+        <f t="shared" ref="A2:A33" si="0" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B2:B83 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1000b.jpg</v>
       </c>
       <c r="B2">
@@ -1778,7 +1778,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B3:B84 &amp;"b.jpg"</f>
+        <f t="shared" si="0"/>
         <v>products_img\\Product_details_JPG\\1001b.jpg</v>
       </c>
       <c r="B3">
@@ -1808,7 +1808,7 @@
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B4:B85 &amp;"b.jpg"</f>
+        <f t="shared" si="0"/>
         <v>products_img\\Product_details_JPG\\1075b.jpg</v>
       </c>
       <c r="B4" s="9">
@@ -1838,7 +1838,7 @@
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B5:B86 &amp;"b.jpg"</f>
+        <f t="shared" si="0"/>
         <v>products_img\\Product_details_JPG\\1082b.jpg</v>
       </c>
       <c r="B5" s="9">
@@ -1859,13 +1859,16 @@
       <c r="G5" s="9" t="s">
         <v>395</v>
       </c>
+      <c r="H5" s="9" t="s">
+        <v>299</v>
+      </c>
       <c r="I5" s="12" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B6:B87 &amp;"b.jpg"</f>
+        <f t="shared" si="0"/>
         <v>products_img\\Product_details_JPG\\1002b.jpg</v>
       </c>
       <c r="B6">
@@ -1895,7 +1898,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B7:B88 &amp;"b.jpg"</f>
+        <f t="shared" si="0"/>
         <v>products_img\\Product_details_JPG\\1003b.jpg</v>
       </c>
       <c r="B7">
@@ -1925,7 +1928,7 @@
     </row>
     <row r="8" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B8:B89 &amp;"b.jpg"</f>
+        <f t="shared" si="0"/>
         <v>products_img\\Product_details_JPG\\1004b.jpg</v>
       </c>
       <c r="B8" s="14">
@@ -1955,7 +1958,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B9:B90 &amp;"b.jpg"</f>
+        <f t="shared" si="0"/>
         <v>products_img\\Product_details_JPG\\1005b.jpg</v>
       </c>
       <c r="B9">
@@ -1985,7 +1988,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B10:B91 &amp;"b.jpg"</f>
+        <f t="shared" si="0"/>
         <v>products_img\\Product_details_JPG\\1006b.jpg</v>
       </c>
       <c r="B10">
@@ -2015,7 +2018,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B11:B92 &amp;"b.jpg"</f>
+        <f t="shared" si="0"/>
         <v>products_img\\Product_details_JPG\\1007b.jpg</v>
       </c>
       <c r="B11">
@@ -2045,7 +2048,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B12:B93 &amp;"b.jpg"</f>
+        <f t="shared" si="0"/>
         <v>products_img\\Product_details_JPG\\1008b.jpg</v>
       </c>
       <c r="B12">
@@ -2075,7 +2078,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B13:B94 &amp;"b.jpg"</f>
+        <f t="shared" si="0"/>
         <v>products_img\\Product_details_JPG\\1009b.jpg</v>
       </c>
       <c r="B13">
@@ -2105,7 +2108,7 @@
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B14:B95 &amp;"b.jpg"</f>
+        <f t="shared" si="0"/>
         <v>products_img\\Product_details_JPG\\1076b.jpg</v>
       </c>
       <c r="B14" s="9">
@@ -2126,13 +2129,16 @@
       <c r="G14" s="9" t="s">
         <v>389</v>
       </c>
+      <c r="H14" t="s">
+        <v>299</v>
+      </c>
       <c r="I14" s="12" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B15:B96 &amp;"b.jpg"</f>
+        <f t="shared" si="0"/>
         <v>products_img\\Product_details_JPG\\1010b.jpg</v>
       </c>
       <c r="B15">
@@ -2162,7 +2168,7 @@
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B16:B97 &amp;"b.jpg"</f>
+        <f t="shared" si="0"/>
         <v>products_img\\Product_details_JPG\\1011b.jpg</v>
       </c>
       <c r="B16" s="2">
@@ -2192,7 +2198,7 @@
     </row>
     <row r="17" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B17:B98 &amp;"b.jpg"</f>
+        <f t="shared" si="0"/>
         <v>products_img\\Product_details_JPG\\1012b.jpg</v>
       </c>
       <c r="B17">
@@ -2222,7 +2228,7 @@
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B18:B99 &amp;"b.jpg"</f>
+        <f t="shared" si="0"/>
         <v>products_img\\Product_details_JPG\\1078b.jpg</v>
       </c>
       <c r="B18" s="9">
@@ -2243,13 +2249,16 @@
       <c r="G18" s="9" t="s">
         <v>391</v>
       </c>
+      <c r="H18" t="s">
+        <v>300</v>
+      </c>
       <c r="I18" s="12" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B19:B100 &amp;"b.jpg"</f>
+        <f t="shared" si="0"/>
         <v>products_img\\Product_details_JPG\\1013b.jpg</v>
       </c>
       <c r="B19">
@@ -2279,7 +2288,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B20:B101 &amp;"b.jpg"</f>
+        <f t="shared" si="0"/>
         <v>products_img\\Product_details_JPG\\1014b.jpg</v>
       </c>
       <c r="B20">
@@ -2309,7 +2318,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B21:B102 &amp;"b.jpg"</f>
+        <f t="shared" si="0"/>
         <v>products_img\\Product_details_JPG\\1015b.jpg</v>
       </c>
       <c r="B21">
@@ -2339,7 +2348,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B22:B103 &amp;"b.jpg"</f>
+        <f t="shared" si="0"/>
         <v>products_img\\Product_details_JPG\\1016b.jpg</v>
       </c>
       <c r="B22">
@@ -2369,7 +2378,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B23:B104 &amp;"b.jpg"</f>
+        <f t="shared" si="0"/>
         <v>products_img\\Product_details_JPG\\1017b.jpg</v>
       </c>
       <c r="B23">
@@ -2399,7 +2408,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B24:B105 &amp;"b.jpg"</f>
+        <f t="shared" si="0"/>
         <v>products_img\\Product_details_JPG\\1018b.jpg</v>
       </c>
       <c r="B24">
@@ -2429,7 +2438,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B25:B106 &amp;"b.jpg"</f>
+        <f t="shared" si="0"/>
         <v>products_img\\Product_details_JPG\\1019b.jpg</v>
       </c>
       <c r="B25">
@@ -2459,7 +2468,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B26:B107 &amp;"b.jpg"</f>
+        <f t="shared" si="0"/>
         <v>products_img\\Product_details_JPG\\1020b.jpg</v>
       </c>
       <c r="B26">
@@ -2489,7 +2498,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B27:B108 &amp;"b.jpg"</f>
+        <f t="shared" si="0"/>
         <v>products_img\\Product_details_JPG\\1021b.jpg</v>
       </c>
       <c r="B27">
@@ -2519,7 +2528,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B28:B109 &amp;"b.jpg"</f>
+        <f t="shared" si="0"/>
         <v>products_img\\Product_details_JPG\\1022b.jpg</v>
       </c>
       <c r="B28">
@@ -2549,7 +2558,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B29:B110 &amp;"b.jpg"</f>
+        <f t="shared" si="0"/>
         <v>products_img\\Product_details_JPG\\1023b.jpg</v>
       </c>
       <c r="B29">
@@ -2579,7 +2588,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B30:B111 &amp;"b.jpg"</f>
+        <f t="shared" si="0"/>
         <v>products_img\\Product_details_JPG\\1024b.jpg</v>
       </c>
       <c r="B30">
@@ -2609,7 +2618,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B31:B112 &amp;"b.jpg"</f>
+        <f t="shared" si="0"/>
         <v>products_img\\Product_details_JPG\\1025b.jpg</v>
       </c>
       <c r="B31">
@@ -2639,7 +2648,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B32:B113 &amp;"b.jpg"</f>
+        <f t="shared" si="0"/>
         <v>products_img\\Product_details_JPG\\1026b.jpg</v>
       </c>
       <c r="B32">
@@ -2669,7 +2678,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B33:B114 &amp;"b.jpg"</f>
+        <f t="shared" si="0"/>
         <v>products_img\\Product_details_JPG\\1027b.jpg</v>
       </c>
       <c r="B33">
@@ -2699,7 +2708,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B34:B115 &amp;"b.jpg"</f>
+        <f t="shared" ref="A34:A65" si="1" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B34:B115 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1028b.jpg</v>
       </c>
       <c r="B34">
@@ -2729,7 +2738,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B35:B116 &amp;"b.jpg"</f>
+        <f t="shared" si="1"/>
         <v>products_img\\Product_details_JPG\\1029b.jpg</v>
       </c>
       <c r="B35">
@@ -2759,7 +2768,7 @@
     </row>
     <row r="36" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B36:B117 &amp;"b.jpg"</f>
+        <f t="shared" si="1"/>
         <v>products_img\\Product_details_JPG\\1030b.jpg</v>
       </c>
       <c r="B36" s="2">
@@ -2789,7 +2798,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B37:B118 &amp;"b.jpg"</f>
+        <f t="shared" si="1"/>
         <v>products_img\\Product_details_JPG\\1031b.jpg</v>
       </c>
       <c r="B37">
@@ -2819,7 +2828,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B38:B119 &amp;"b.jpg"</f>
+        <f t="shared" si="1"/>
         <v>products_img\\Product_details_JPG\\1032b.jpg</v>
       </c>
       <c r="B38">
@@ -2849,7 +2858,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B39:B120 &amp;"b.jpg"</f>
+        <f t="shared" si="1"/>
         <v>products_img\\Product_details_JPG\\1033b.jpg</v>
       </c>
       <c r="B39">
@@ -2879,7 +2888,7 @@
     </row>
     <row r="40" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B40:B121 &amp;"b.jpg"</f>
+        <f t="shared" si="1"/>
         <v>products_img\\Product_details_JPG\\1077b.jpg</v>
       </c>
       <c r="B40" s="9">
@@ -2900,13 +2909,16 @@
       <c r="G40" s="9" t="s">
         <v>390</v>
       </c>
+      <c r="H40" t="s">
+        <v>301</v>
+      </c>
       <c r="I40" s="12" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B41:B122 &amp;"b.jpg"</f>
+        <f t="shared" si="1"/>
         <v>products_img\\Product_details_JPG\\1034b.jpg</v>
       </c>
       <c r="B41">
@@ -2936,7 +2948,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B42:B123 &amp;"b.jpg"</f>
+        <f t="shared" si="1"/>
         <v>products_img\\Product_details_JPG\\1035b.jpg</v>
       </c>
       <c r="B42">
@@ -2966,7 +2978,7 @@
     </row>
     <row r="43" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B43:B124 &amp;"b.jpg"</f>
+        <f t="shared" si="1"/>
         <v>products_img\\Product_details_JPG\\1036b.jpg</v>
       </c>
       <c r="B43">
@@ -2996,7 +3008,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B44:B125 &amp;"b.jpg"</f>
+        <f t="shared" si="1"/>
         <v>products_img\\Product_details_JPG\\1037b.jpg</v>
       </c>
       <c r="B44">
@@ -3026,7 +3038,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B45:B126 &amp;"b.jpg"</f>
+        <f t="shared" si="1"/>
         <v>products_img\\Product_details_JPG\\1038b.jpg</v>
       </c>
       <c r="B45">
@@ -3056,7 +3068,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B46:B127 &amp;"b.jpg"</f>
+        <f t="shared" si="1"/>
         <v>products_img\\Product_details_JPG\\1039b.jpg</v>
       </c>
       <c r="B46">
@@ -3086,7 +3098,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B47:B128 &amp;"b.jpg"</f>
+        <f t="shared" si="1"/>
         <v>products_img\\Product_details_JPG\\1040b.jpg</v>
       </c>
       <c r="B47">
@@ -3116,7 +3128,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B48:B129 &amp;"b.jpg"</f>
+        <f t="shared" si="1"/>
         <v>products_img\\Product_details_JPG\\1041b.jpg</v>
       </c>
       <c r="B48">
@@ -3146,7 +3158,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B49:B130 &amp;"b.jpg"</f>
+        <f t="shared" si="1"/>
         <v>products_img\\Product_details_JPG\\1042b.jpg</v>
       </c>
       <c r="B49">
@@ -3176,7 +3188,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B50:B131 &amp;"b.jpg"</f>
+        <f t="shared" si="1"/>
         <v>products_img\\Product_details_JPG\\1043b.jpg</v>
       </c>
       <c r="B50">
@@ -3206,7 +3218,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B51:B132 &amp;"b.jpg"</f>
+        <f t="shared" si="1"/>
         <v>products_img\\Product_details_JPG\\1044b.jpg</v>
       </c>
       <c r="B51">
@@ -3236,7 +3248,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B52:B133 &amp;"b.jpg"</f>
+        <f t="shared" si="1"/>
         <v>products_img\\Product_details_JPG\\1045b.jpg</v>
       </c>
       <c r="B52">
@@ -3266,7 +3278,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B53:B134 &amp;"b.jpg"</f>
+        <f t="shared" si="1"/>
         <v>products_img\\Product_details_JPG\\1046b.jpg</v>
       </c>
       <c r="B53">
@@ -3296,7 +3308,7 @@
     </row>
     <row r="54" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B54:B135 &amp;"b.jpg"</f>
+        <f t="shared" si="1"/>
         <v>products_img\\Product_details_JPG\\1047b.jpg</v>
       </c>
       <c r="B54" s="2">
@@ -3326,7 +3338,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B55:B136 &amp;"b.jpg"</f>
+        <f t="shared" si="1"/>
         <v>products_img\\Product_details_JPG\\1048b.jpg</v>
       </c>
       <c r="B55">
@@ -3356,7 +3368,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B56:B137 &amp;"b.jpg"</f>
+        <f t="shared" si="1"/>
         <v>products_img\\Product_details_JPG\\1049b.jpg</v>
       </c>
       <c r="B56">
@@ -3386,7 +3398,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B57:B138 &amp;"b.jpg"</f>
+        <f t="shared" si="1"/>
         <v>products_img\\Product_details_JPG\\1050b.jpg</v>
       </c>
       <c r="B57">
@@ -3416,7 +3428,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B58:B139 &amp;"b.jpg"</f>
+        <f t="shared" si="1"/>
         <v>products_img\\Product_details_JPG\\1051b.jpg</v>
       </c>
       <c r="B58">
@@ -3446,7 +3458,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B59:B140 &amp;"b.jpg"</f>
+        <f t="shared" si="1"/>
         <v>products_img\\Product_details_JPG\\1052b.jpg</v>
       </c>
       <c r="B59">
@@ -3476,7 +3488,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B60:B141 &amp;"b.jpg"</f>
+        <f t="shared" si="1"/>
         <v>products_img\\Product_details_JPG\\1053b.jpg</v>
       </c>
       <c r="B60">
@@ -3506,7 +3518,7 @@
     </row>
     <row r="61" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B61:B142 &amp;"b.jpg"</f>
+        <f t="shared" si="1"/>
         <v>products_img\\Product_details_JPG\\1054b.jpg</v>
       </c>
       <c r="B61" s="2">
@@ -3536,7 +3548,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B62:B143 &amp;"b.jpg"</f>
+        <f t="shared" si="1"/>
         <v>products_img\\Product_details_JPG\\1055b.jpg</v>
       </c>
       <c r="B62">
@@ -3566,7 +3578,7 @@
     </row>
     <row r="63" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B63:B144 &amp;"b.jpg"</f>
+        <f t="shared" si="1"/>
         <v>products_img\\Product_details_JPG\\1079b.jpg</v>
       </c>
       <c r="B63" s="9">
@@ -3587,13 +3599,16 @@
       <c r="G63" s="9" t="s">
         <v>392</v>
       </c>
+      <c r="H63" t="s">
+        <v>303</v>
+      </c>
       <c r="I63" s="12" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B64:B145 &amp;"b.jpg"</f>
+        <f t="shared" si="1"/>
         <v>products_img\\Product_details_JPG\\1080b.jpg</v>
       </c>
       <c r="B64" s="9">
@@ -3614,13 +3629,16 @@
       <c r="G64" s="9" t="s">
         <v>393</v>
       </c>
+      <c r="H64" t="s">
+        <v>303</v>
+      </c>
       <c r="I64" s="12" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B65:B146 &amp;"b.jpg"</f>
+        <f t="shared" si="1"/>
         <v>products_img\\Product_details_JPG\\1081b.jpg</v>
       </c>
       <c r="B65" s="9">
@@ -3641,13 +3659,16 @@
       <c r="G65" s="9" t="s">
         <v>394</v>
       </c>
+      <c r="H65" t="s">
+        <v>303</v>
+      </c>
       <c r="I65" s="12" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B66:B147 &amp;"b.jpg"</f>
+        <f t="shared" ref="A66:A97" si="2" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B66:B147 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1056b.jpg</v>
       </c>
       <c r="B66">
@@ -3677,7 +3698,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B67:B148 &amp;"b.jpg"</f>
+        <f t="shared" si="2"/>
         <v>products_img\\Product_details_JPG\\1057b.jpg</v>
       </c>
       <c r="B67">
@@ -3707,7 +3728,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B68:B149 &amp;"b.jpg"</f>
+        <f t="shared" si="2"/>
         <v>products_img\\Product_details_JPG\\1058b.jpg</v>
       </c>
       <c r="B68">
@@ -3737,7 +3758,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B69:B150 &amp;"b.jpg"</f>
+        <f t="shared" si="2"/>
         <v>products_img\\Product_details_JPG\\1059b.jpg</v>
       </c>
       <c r="B69">
@@ -3767,7 +3788,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
-        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B70:B151 &amp;"b.jpg"</f>
+        <f t="shared" si="2"/>
         <v>products_img\\Product_details_JPG\\1060b.jpg</v>
       </c>
       <c r="B70">
@@ -3797,7 +3818,7 @@
     </row>
     <row r="71" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
-        <f t="shared" ref="A71:A83" si="0" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B71:B153 &amp;"b.jpg"</f>
+        <f t="shared" ref="A71:A83" si="3" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; B71:B153 &amp;"b.jpg"</f>
         <v>products_img\\Product_details_JPG\\1061b.jpg</v>
       </c>
       <c r="B71" s="2">
@@ -3827,7 +3848,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>products_img\\Product_details_JPG\\1063b.jpg</v>
       </c>
       <c r="B72">
@@ -3857,7 +3878,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>products_img\\Product_details_JPG\\1064b.jpg</v>
       </c>
       <c r="B73">
@@ -3887,7 +3908,7 @@
     </row>
     <row r="74" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>products_img\\Product_details_JPG\\1065b.jpg</v>
       </c>
       <c r="B74" s="2">
@@ -3917,7 +3938,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>products_img\\Product_details_JPG\\1066b.jpg</v>
       </c>
       <c r="B75">
@@ -3947,7 +3968,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>products_img\\Product_details_JPG\\1067b.jpg</v>
       </c>
       <c r="B76">
@@ -3977,7 +3998,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>products_img\\Product_details_JPG\\1068b.jpg</v>
       </c>
       <c r="B77">
@@ -4007,7 +4028,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>products_img\\Product_details_JPG\\1069b.jpg</v>
       </c>
       <c r="B78">
@@ -4037,7 +4058,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>products_img\\Product_details_JPG\\1070b.jpg</v>
       </c>
       <c r="B79">
@@ -4067,7 +4088,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>products_img\\Product_details_JPG\\1071b.jpg</v>
       </c>
       <c r="B80">
@@ -4097,7 +4118,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>products_img\\Product_details_JPG\\1072b.jpg</v>
       </c>
       <c r="B81">
@@ -4127,7 +4148,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>products_img\\Product_details_JPG\\1073b.jpg</v>
       </c>
       <c r="B82">
@@ -4154,7 +4175,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>products_img\\Product_details_JPG\\1074b.jpg</v>
       </c>
       <c r="B83">
